--- a/sinkhole_data/구별/기장군.xlsx
+++ b/sinkhole_data/구별/기장군.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogs0\OneDrive\바탕 화면\2025 전국대학생 CM•시공 경진대회\싱크홀 데이터\구별\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2101CFBF-BA52-4B66-9498-054B9FB3B161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4294873-B5C0-4474-9F35-C492A87838E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="11630" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,15 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>location</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>reason</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>width</t>
@@ -44,23 +44,24 @@
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산광역시 기장군 청강리 795-9번지 일원</t>
-  </si>
-  <si>
-    <t>하수관 손상</t>
-  </si>
-  <si>
-    <t>노후 하수박스 철거 후 하수관(D1000) 재설치 및 포장복구완료</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -79,7 +80,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Arial Unicode MS"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -98,7 +99,271 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>청강리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 795-9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일원</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하수관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>손상</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하수박스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>철거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하수관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(D1000) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재설치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포장복구완료</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기장군</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -117,7 +382,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Arial Unicode MS"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -136,7 +401,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Arial Unicode MS"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -155,7 +420,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Arial Unicode MS"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -174,7 +439,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Arial Unicode MS"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -193,7 +458,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Arial Unicode MS"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -212,7 +477,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Arial Unicode MS"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -231,7 +496,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Arial Unicode MS"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -250,7 +515,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Arial Unicode MS"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -265,44 +530,280 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>하수박스 손상부 복구 및 토사되메우기 완료</t>
-  </si>
-  <si>
-    <t>부산광역시 기장군 정관면 달산리 44-45번지 앞(산단5로)</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하수박스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>손상부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토사되메우기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기장군</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정관면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달산리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 44-45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,37 +836,9 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Arial Unicode MS"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -428,34 +901,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I4" sqref="H1:I4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -776,87 +1246,88 @@
     <col min="5" max="5" width="6.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>14</v>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>43447</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>3.4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>1.7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>15</v>
+      <c r="I2" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>44036</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>11</v>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H3" s="8">
         <v>129.22886459074499</v>
@@ -866,26 +1337,26 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>44037</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
         <v>1.2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>7</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H4" s="8">
         <v>129.20257910184901</v>
@@ -895,7 +1366,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>